--- a/Test protocol/Sprint_2/SE/System Test protocol_Braille DP2_Sprint 2_SE.xlsx
+++ b/Test protocol/Sprint_2/SE/System Test protocol_Braille DP2_Sprint 2_SE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\02 Pågående\(Richard) Braille in Daisy Pipeline project\Arbetsmaterial\Test management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\Sprint_2\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -480,13 +480,13 @@
     <t xml:space="preserve">4.4.46: fail. 4.4.47: fail. 4.4.51: pass. 4.4.52: fail. 4.4.53: fail. </t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.46: Text is filling up the whole width of the page. 4.4.47: No borders, padding erroneous. No borders at prodnote or at title page. No different padding/indentation on blockquote, preceeding empty line before parapraphs that should have only indentation. 4.4.52: title should be centered, which does not work here, while we do not use right aligned text. 4.4.53: we had an element/class "dedication" that did not get the right vertical position. </t>
-  </si>
-  <si>
-    <t>The following is O.K.: Text conversion to braille; capital letters incl. several words with only capital letters. The following is NOT O.K.: hyphenation, which is not in function; paragraphs (both variants are erroneous, they have both indentation and preceeding empty line, while they should have only one of those characteristics); pagination/pages (no division in pages at all); title page (no title page is rendered)</t>
-  </si>
-  <si>
     <t>No hyphenation: no word has been hyphenated, words are simple cut when row is finished.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4.46: We cannot make the CSS work 4.4.47: No borders, although we tried to make the CSS work. Padding: preceeding empty line before parapraphs that should have only indentation. 4.4.52: We have not succeeded in testing centered and right aligned text. 4.4.53: We have not succeeded in testing vertical position. </t>
   </si>
 </sst>
 </file>
@@ -753,12 +753,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Dekorfärg3" xfId="4" builtinId="38"/>
-    <cellStyle name="Hyperlänk" xfId="5" builtinId="8"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Rubrik" xfId="1" builtinId="15"/>
-    <cellStyle name="Rubrik 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Rubrik 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,7 +779,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1048,99 +1048,99 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
     </row>
-    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="150.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="144.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
     </row>
   </sheetData>
@@ -1163,16 +1163,16 @@
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,13 +1181,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1226,21 +1226,21 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1287,14 +1287,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1303,25 +1303,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1377,32 +1377,32 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="7" customFormat="1" ht="288" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1458,14 +1458,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1487,20 +1487,20 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="76" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1509,13 +1509,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1558,21 +1558,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>76</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>62</v>
       </c>
@@ -1670,38 +1670,36 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="65" t="s">
-        <v>105</v>
-      </c>
+      <c r="B19" s="65"/>
       <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1708,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1717,7 @@
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1726,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1735,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1755,7 @@
       </c>
       <c r="C28" s="44"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>74</v>
       </c>
@@ -1765,7 +1763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
         <v>82</v>
       </c>
@@ -1773,7 +1771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>83</v>
       </c>
@@ -1781,32 +1779,32 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1813,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1822,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1831,7 @@
       </c>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +1840,7 @@
       </c>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +1851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>74</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
         <v>82</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>83</v>
       </c>
@@ -1888,7 +1886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>62</v>
       </c>
@@ -1896,16 +1894,16 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>7</v>
       </c>
@@ -1914,18 +1912,18 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1932,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1941,7 @@
       </c>
       <c r="C51" s="43"/>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1950,7 @@
       </c>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>3</v>
       </c>
@@ -1961,7 +1959,7 @@
       </c>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +1981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="57" t="s">
         <v>62</v>
       </c>
@@ -1991,16 +1989,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -2009,18 +2007,18 @@
       </c>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2027,7 @@
       </c>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2036,7 @@
       </c>
       <c r="C62" s="43"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>2</v>
       </c>
@@ -2047,7 +2045,7 @@
       </c>
       <c r="C63" s="9"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>3</v>
       </c>
@@ -2056,7 +2054,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:5" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>5</v>
       </c>
@@ -2078,39 +2076,39 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="34"/>
     </row>
-    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
     </row>
-    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
     </row>
-    <row r="71" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2117,7 @@
       </c>
       <c r="C72" s="9"/>
     </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>1</v>
       </c>
@@ -2128,7 +2126,7 @@
       </c>
       <c r="C73" s="43"/>
     </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2135,7 @@
       </c>
       <c r="C74" s="9"/>
     </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2144,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2156,7 @@
       </c>
       <c r="E76" s="64"/>
     </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2165,7 @@
       </c>
       <c r="C77" s="34"/>
     </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="14" t="s">
         <v>64</v>
@@ -2176,64 +2174,64 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C79" s="34"/>
     </row>
-    <row r="80" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:3" s="48" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" s="48" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B82" s="49"/>
       <c r="C82" s="50"/>
     </row>
-    <row r="83" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="51"/>
       <c r="B83" s="52"/>
       <c r="C83" s="53"/>
     </row>
-    <row r="84" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="51"/>
       <c r="B84" s="52"/>
       <c r="C84" s="55"/>
     </row>
-    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
     </row>
-    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="11"/>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
       <c r="C87" s="35"/>
     </row>
-    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="28"/>
       <c r="C88" s="34"/>
     </row>
-    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
     </row>
-    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
     </row>

--- a/Test protocol/Sprint_2/SE/System Test protocol_Braille DP2_Sprint 2_SE.xlsx
+++ b/Test protocol/Sprint_2/SE/System Test protocol_Braille DP2_Sprint 2_SE.xlsx
@@ -1488,7 +1488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>4</v>
       </c>
